--- a/biology/Botanique/Tryba/Tryba.xlsx
+++ b/biology/Botanique/Tryba/Tryba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tryba est une société française de menuiseries extérieures en PVC, aluminium et bois basée à Gundershoffen en Alsace.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1980, Johannes Tryba, maître menuisier, tout comme son père et son grand-père, originaire de Baden-Baden, crée la société Tryba à Gundershoffen /  Griesbach, commune associée, dans le Bas-Rhin[2]. Celle-ci démarre avec 15 salariés et produit 20 fenêtres PVC par jour sur 1 200 m2[3]. En 1984, Tryba met en place son propre réseau de concessionnaires en France[4].
-En 2015, Tryba acquiert la menuiserie Thareaut spécialisée depuis 1749 dans les menuiseries bois haut de gamme[5]. En 2017, Tryba change de logo et adopte la mascotte sumo[6]. En 2021, Tryba agrandit son site de production en Alsace, un investissement 14 millions d'euros[7],[8], puis lance sa collection de fenêtres en PVC et aluminium l'année suivante[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1980, Johannes Tryba, maître menuisier, tout comme son père et son grand-père, originaire de Baden-Baden, crée la société Tryba à Gundershoffen /  Griesbach, commune associée, dans le Bas-Rhin. Celle-ci démarre avec 15 salariés et produit 20 fenêtres PVC par jour sur 1 200 m2. En 1984, Tryba met en place son propre réseau de concessionnaires en France.
+En 2015, Tryba acquiert la menuiserie Thareaut spécialisée depuis 1749 dans les menuiseries bois haut de gamme. En 2017, Tryba change de logo et adopte la mascotte sumo. En 2021, Tryba agrandit son site de production en Alsace, un investissement 14 millions d'euros puis lance sa collection de fenêtres en PVC et aluminium l'année suivante.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Implantée en Alsace, Tryba conçoit, fabrique et installe des fenêtres, portes et volets pour l’habitat des particuliers, depuis sa création en 1980. Tryba fait partie du groupe Atrya.
 Le site historique est aujourd’hui encore le siège de la marque et son site de production princpal.
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020 à 2022 : Attribution du prix « Menuiseries de l’année »[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020 à 2022 : Attribution du prix « Menuiseries de l’année »
 Sur les autres projets Wikimedia :
 Tryba, sur Wikimedia Commons
 </t>
